--- a/files/download/vlans.xlsx
+++ b/files/download/vlans.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>address</t>
   </si>
@@ -33,15 +33,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>ps10-2</t>
-  </si>
-  <si>
-    <t>Пионерстроя 10-2</t>
-  </si>
-  <si>
-    <t>vet141</t>
-  </si>
-  <si>
     <t>cam</t>
   </si>
   <si>
@@ -51,13 +42,46 @@
     <t>wifi</t>
   </si>
   <si>
-    <t>Ветеранов 141</t>
-  </si>
-  <si>
     <t>d28</t>
   </si>
   <si>
     <t>Добровольцев 28</t>
+  </si>
+  <si>
+    <t>address_network</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>Пионерстроя 19-2</t>
+  </si>
+  <si>
+    <t>ps19-2</t>
+  </si>
+  <si>
+    <t>ps20-157</t>
+  </si>
+  <si>
+    <t>Пионерстроя 20-157</t>
+  </si>
+  <si>
+    <t>d-g12</t>
+  </si>
+  <si>
+    <t>Германа 12</t>
+  </si>
+  <si>
+    <t>10.1.8.0</t>
+  </si>
+  <si>
+    <t>10.1.10.0</t>
+  </si>
+  <si>
+    <t>10.203.199.0</t>
+  </si>
+  <si>
+    <t>10.30.4.224</t>
   </si>
 </sst>
 </file>
@@ -96,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,62 +129,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -170,30 +149,26 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -474,72 +449,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2679</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
